--- a/data/trans_bre/P10_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,46</t>
+          <t>-0,3; 5,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 14,23</t>
+          <t>7,34; 14,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 16,65</t>
+          <t>10,49; 17,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,57</t>
+          <t>7,95; 15,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 56,61</t>
+          <t>-2,08; 56,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,85; 125,07</t>
+          <t>45,59; 124,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 211,97</t>
+          <t>94,17; 219,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,99; 158,88</t>
+          <t>54,23; 154,29</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,08</t>
+          <t>1,88; 4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,06</t>
+          <t>3,47; 7,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,47</t>
+          <t>1,26; 4,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,54</t>
+          <t>1,34; 4,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,61; 163,68</t>
+          <t>42,16; 161,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,85; 175,9</t>
+          <t>65,35; 175,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 90,81</t>
+          <t>19,51; 88,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,15; 97,66</t>
+          <t>23,26; 105,7</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,64</t>
+          <t>-1,1; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,77</t>
+          <t>-2,97; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,82</t>
+          <t>0,77; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,73</t>
+          <t>0,74; 5,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 162,66</t>
+          <t>-26,87; 149,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 120,13</t>
+          <t>-47,62; 122,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 308,09</t>
+          <t>13,96; 308,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 196,59</t>
+          <t>9,53; 190,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>2,13; 4,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,04</t>
+          <t>6,03; 9,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,63</t>
+          <t>4,73; 7,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,73</t>
+          <t>3,92; 6,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>31,47; 85,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,52; 139,07</t>
+          <t>78,58; 143,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,84; 138,69</t>
+          <t>70,72; 139,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,21; 118,79</t>
+          <t>56,24; 121,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,24</t>
+          <t>-0,16; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,04</t>
+          <t>7,58; 14,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,0</t>
+          <t>10,17; 17,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 56,19</t>
+          <t>-0,65; 55,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,59; 124,89</t>
+          <t>50,17; 124,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,17; 219,4</t>
+          <t>91,57; 226,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,97</t>
+          <t>1,78; 5,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,12</t>
+          <t>3,63; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,53</t>
+          <t>1,24; 4,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,16; 161,29</t>
+          <t>41,67; 174,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,35; 175,57</t>
+          <t>66,14; 173,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,51; 88,84</t>
+          <t>18,62; 89,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,59</t>
+          <t>-1,16; 4,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,62</t>
+          <t>-2,75; 3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,88</t>
+          <t>0,74; 5,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 149,82</t>
+          <t>-21,92; 149,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,62; 122,32</t>
+          <t>-43,63; 132,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 308,74</t>
+          <t>10,82; 309,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,68</t>
+          <t>2,09; 4,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 9,05</t>
+          <t>5,82; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,58</t>
+          <t>4,7; 7,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,47; 85,5</t>
+          <t>31,65; 83,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,58; 143,26</t>
+          <t>74,26; 140,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,72; 139,15</t>
+          <t>69,62; 140,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
